--- a/src/main/java/resources/RMSAllEnvTestData.xlsx
+++ b/src/main/java/resources/RMSAllEnvTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagababu.parepalli\eclipse-workspace\RmsCustomerPortal\src\main\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagababu.parepalli\eclipse-workspace\RMS\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABFDA1A-5831-4D55-8D8C-7E38B745660E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AFE657-67AE-4FB2-A9D7-E65872694712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F45140C-9D0A-43A7-8AA8-1FFD7BE961DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F45140C-9D0A-43A7-8AA8-1FFD7BE961DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Access" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
   <si>
     <t>NeedBydate</t>
   </si>
@@ -104,12 +104,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://rmstest.ehealthcorp.net:8020/Default.aspx</t>
-  </si>
-  <si>
-    <t>Zarif.mohd</t>
-  </si>
-  <si>
     <t>Kick4Thy</t>
   </si>
   <si>
@@ -120,6 +114,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>11/22/2021</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Bronx New Dep B</t>
+  </si>
+  <si>
+    <t>zarif.mohd</t>
+  </si>
+  <si>
+    <t>http://rmstest.ehealthcorp.net:8020</t>
   </si>
 </sst>
 </file>
@@ -491,14 +500,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4F009C-2F21-4FFE-991A-EBEBB27C3566}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -514,18 +523,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4466BF9B-784B-4127-8094-26F3A482D028}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{859E6146-2970-49A9-880C-E46CF7A11197}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -533,120 +542,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A6559-6C39-4A88-B242-BC784C7EBF81}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +889,7 @@
   <dimension ref="F16:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:O17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -705,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
